--- a/testData/user_login_data.xlsx
+++ b/testData/user_login_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\demoProjects\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15A898D-9115-4868-A722-2C181CE75EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BF972D-A575-43E5-87D1-9C1C37D19D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2AC32686-DC11-438A-9B05-B2D3BEEBAA5A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2AC32686-DC11-438A-9B05-B2D3BEEBAA5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <t>Hello2021@@@</t>
   </si>
   <si>
-    <t>er</t>
+    <t>${username}</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/testData/user_login_data.xlsx
+++ b/testData/user_login_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\demoProjects\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BF972D-A575-43E5-87D1-9C1C37D19D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48319BA-D6E1-400A-9DC4-1A361FE88B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2AC32686-DC11-438A-9B05-B2D3BEEBAA5A}"/>
+    <workbookView xWindow="3516" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{2AC32686-DC11-438A-9B05-B2D3BEEBAA5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,28 +33,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>${password}</t>
   </si>
   <si>
-    <t>rkumar1433</t>
-  </si>
-  <si>
-    <t>Hello2021@@@</t>
-  </si>
-  <si>
     <t>${username}</t>
+  </si>
+  <si>
+    <t>A@gmail.com</t>
+  </si>
+  <si>
+    <t>B@outlook.com</t>
+  </si>
+  <si>
+    <t>Namma2020@@@</t>
+  </si>
+  <si>
+    <t>Namma2021@@@</t>
+  </si>
+  <si>
+    <t>Namma2022@@@</t>
+  </si>
+  <si>
+    <t>Namma2023@@@</t>
+  </si>
+  <si>
+    <t>Namma2024@@@</t>
+  </si>
+  <si>
+    <t>Namma2025@@@</t>
+  </si>
+  <si>
+    <t>C@gmail.com</t>
+  </si>
+  <si>
+    <t>D@outlook.com</t>
+  </si>
+  <si>
+    <t>E@gmail.com</t>
+  </si>
+  <si>
+    <t>F@outlook.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,14 +121,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -403,35 +444,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97F0210-A4EA-4153-8A98-3FAC21A44C96}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{029CBC15-3091-4CD5-83D8-75CA516F77BE}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{45353BD0-9B7C-4090-8DE0-FC4FA88E8247}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{449C7A76-891C-47B6-A12E-1BD3A5EAC2ED}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{0A148F27-344B-4CF9-92A6-DF51B78BB9BC}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{1FAA13C6-4D87-4705-9621-6BFC8A8F5D23}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{8FDB7CA7-E9C9-4DEF-A711-2A33D08F73A1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testData/user_login_data.xlsx
+++ b/testData/user_login_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\demoProjects\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48319BA-D6E1-400A-9DC4-1A361FE88B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C600479-1A62-4B1B-A608-B30DFC939C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3516" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{2AC32686-DC11-438A-9B05-B2D3BEEBAA5A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2AC32686-DC11-438A-9B05-B2D3BEEBAA5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -447,7 +447,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
